--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardValidateValidationNull.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardValidateValidationNull.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="1785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,14 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>myname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,14 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it7891234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it7891234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +133,17 @@
   </si>
   <si>
     <t>validation2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -535,22 +530,22 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
@@ -559,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
         <v>2</v>
@@ -573,40 +568,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="2" t="s">

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardValidateValidationNull.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardValidateValidationNull.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,64 +31,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验金额、支付密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定银行卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBankCard(436742121737)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPassword1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankcard_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验金额、支付密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
     <t>comments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bank_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankcard_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定银行卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPassword1</t>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${RandomUtils.generateUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,50 +140,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${BankCardUtils.getBankCard(436742121737)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${RandomUtils.generateUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectCheckCode()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectValidation()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validation2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -502,94 +503,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="13" max="14" width="9.5" customWidth="1"/>
+    <col min="6" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" customFormat="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" customFormat="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
@@ -598,17 +598,17 @@
         <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardValidateValidationNull.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/BindCardValidateValidationNull.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12090" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${BankCardUtils.getBankCard(436742121737)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +141,10 @@
   </si>
   <si>
     <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(436742121737)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -515,52 +515,52 @@
   <sheetData>
     <row r="1" spans="1:19" customFormat="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:19" customFormat="1">
@@ -568,40 +568,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="2" t="s">
